--- a/data/pca/factorExposure/factorExposure_2018-07-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03102605609599905</v>
+        <v>0.02590549852680191</v>
       </c>
       <c r="C2">
-        <v>0.02712123734221734</v>
+        <v>0.01727656677331373</v>
       </c>
       <c r="D2">
-        <v>0.02641749946490726</v>
+        <v>0.0197859643769322</v>
       </c>
       <c r="E2">
-        <v>-0.003938948708919299</v>
+        <v>0.01586044529451541</v>
       </c>
       <c r="F2">
-        <v>0.1258326780232035</v>
+        <v>-0.006237063945149089</v>
       </c>
       <c r="G2">
-        <v>-0.03940541564625945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05197383437133515</v>
+      </c>
+      <c r="H2">
+        <v>-0.05254535314295167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1098586001960867</v>
+        <v>0.08355488408341695</v>
       </c>
       <c r="C3">
-        <v>-0.03476878504345637</v>
+        <v>-0.01352328248680502</v>
       </c>
       <c r="D3">
-        <v>0.08100036699168876</v>
+        <v>0.0234865347872061</v>
       </c>
       <c r="E3">
-        <v>-0.01388365743737425</v>
+        <v>0.01443157760549888</v>
       </c>
       <c r="F3">
-        <v>0.4057372124383242</v>
+        <v>0.04232197588541459</v>
       </c>
       <c r="G3">
-        <v>-0.1535454332737322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1821127206391365</v>
+      </c>
+      <c r="H3">
+        <v>-0.1580855631226772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05437098219468296</v>
+        <v>0.04859878794127647</v>
       </c>
       <c r="C4">
-        <v>0.02739081464502678</v>
+        <v>0.003212371948197652</v>
       </c>
       <c r="D4">
-        <v>-0.01745260600364917</v>
+        <v>0.04150332909984794</v>
       </c>
       <c r="E4">
-        <v>-0.05904866807901222</v>
+        <v>-0.02277377696268346</v>
       </c>
       <c r="F4">
-        <v>0.08064986763955179</v>
+        <v>-0.04858963628686981</v>
       </c>
       <c r="G4">
-        <v>-0.04065231994569905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04172785396717785</v>
+      </c>
+      <c r="H4">
+        <v>-0.05849594667640188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01336014541654079</v>
+        <v>0.02657092223521976</v>
       </c>
       <c r="C6">
-        <v>0.00763603604247504</v>
+        <v>0.003613340711525621</v>
       </c>
       <c r="D6">
-        <v>0.01767778769793576</v>
+        <v>0.05025747444635829</v>
       </c>
       <c r="E6">
-        <v>-0.02164158448668428</v>
+        <v>-0.009106350001499024</v>
       </c>
       <c r="F6">
-        <v>0.01320582618466286</v>
+        <v>-0.03008804201191567</v>
       </c>
       <c r="G6">
-        <v>-0.002210289746018272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01354785720400633</v>
+      </c>
+      <c r="H6">
+        <v>-0.06034884922203215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02409662431426924</v>
+        <v>0.0224473636726977</v>
       </c>
       <c r="C7">
-        <v>0.001288432967218174</v>
+        <v>0.002748296918369877</v>
       </c>
       <c r="D7">
-        <v>0.01487429635316004</v>
+        <v>0.02471414252603427</v>
       </c>
       <c r="E7">
-        <v>-0.0337689141634516</v>
+        <v>-0.04207040993309182</v>
       </c>
       <c r="F7">
-        <v>0.05383547333568254</v>
+        <v>-0.002333330121846974</v>
       </c>
       <c r="G7">
-        <v>-0.05993045900457612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02417504458419666</v>
+      </c>
+      <c r="H7">
+        <v>-0.03751085599169781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02126060246456586</v>
+        <v>0.007305546976626508</v>
       </c>
       <c r="C8">
-        <v>0.01654097230273023</v>
+        <v>-0.002110851844933456</v>
       </c>
       <c r="D8">
-        <v>0.008195677407906519</v>
+        <v>0.01134603101452622</v>
       </c>
       <c r="E8">
-        <v>-0.05262427519882473</v>
+        <v>-0.006664321655231086</v>
       </c>
       <c r="F8">
-        <v>0.09485314830690678</v>
+        <v>-0.01629285140932148</v>
       </c>
       <c r="G8">
-        <v>-0.05590113032920856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04712770525905358</v>
+      </c>
+      <c r="H8">
+        <v>-0.04139951630669122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04265391218904262</v>
+        <v>0.03951163275123483</v>
       </c>
       <c r="C9">
-        <v>0.02479944564389875</v>
+        <v>-0.0006948926804887644</v>
       </c>
       <c r="D9">
-        <v>-0.00490192909112084</v>
+        <v>0.03325289567113375</v>
       </c>
       <c r="E9">
-        <v>-0.05535754442156971</v>
+        <v>-0.01164592964490099</v>
       </c>
       <c r="F9">
-        <v>0.08013445237368325</v>
+        <v>-0.02529764431252514</v>
       </c>
       <c r="G9">
-        <v>-0.05576167316092098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04933604644364085</v>
+      </c>
+      <c r="H9">
+        <v>-0.05290759182863567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02632977278330448</v>
+        <v>0.09684030372216948</v>
       </c>
       <c r="C10">
-        <v>-0.04062237683102933</v>
+        <v>-0.02787852093242254</v>
       </c>
       <c r="D10">
-        <v>-0.08145237756576872</v>
+        <v>-0.156652917173996</v>
       </c>
       <c r="E10">
-        <v>0.1036007122520787</v>
+        <v>0.01226965962440835</v>
       </c>
       <c r="F10">
-        <v>0.05839483872883997</v>
+        <v>0.04656722002477009</v>
       </c>
       <c r="G10">
-        <v>0.04241185104712508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02441793811158522</v>
+      </c>
+      <c r="H10">
+        <v>-0.00507252557733294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03729360346245114</v>
+        <v>0.02259091020575228</v>
       </c>
       <c r="C11">
-        <v>0.01479189689164455</v>
+        <v>-0.008754122897388236</v>
       </c>
       <c r="D11">
-        <v>0.01546627560338355</v>
+        <v>0.03715454163568135</v>
       </c>
       <c r="E11">
-        <v>-0.03437021496875856</v>
+        <v>-7.170388738148614e-05</v>
       </c>
       <c r="F11">
-        <v>0.04300253646571187</v>
+        <v>-0.0102857603243498</v>
       </c>
       <c r="G11">
-        <v>-0.02699954190312022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02654147012647802</v>
+      </c>
+      <c r="H11">
+        <v>-0.0445936570782918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04268965452133235</v>
+        <v>0.03107821749147013</v>
       </c>
       <c r="C12">
-        <v>0.01417136692043985</v>
+        <v>-0.007102277601232539</v>
       </c>
       <c r="D12">
-        <v>0.009642168240592488</v>
+        <v>0.03833221783691056</v>
       </c>
       <c r="E12">
-        <v>-0.03960906784078116</v>
+        <v>-0.009318600031700939</v>
       </c>
       <c r="F12">
-        <v>0.03003795322926575</v>
+        <v>-0.01658215561938892</v>
       </c>
       <c r="G12">
-        <v>-0.01624058447990696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01174192726585406</v>
+      </c>
+      <c r="H12">
+        <v>-0.02353141445500374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02042125910723295</v>
+        <v>0.02629766426913996</v>
       </c>
       <c r="C13">
-        <v>0.02150741180843556</v>
+        <v>0.01380691872344498</v>
       </c>
       <c r="D13">
-        <v>0.0134075765908265</v>
+        <v>0.002838508895611797</v>
       </c>
       <c r="E13">
-        <v>-0.003604791952192435</v>
+        <v>0.01294427883018523</v>
       </c>
       <c r="F13">
-        <v>0.0810323817613233</v>
+        <v>-0.008973429721719408</v>
       </c>
       <c r="G13">
-        <v>-0.03607598234156113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04999511475598233</v>
+      </c>
+      <c r="H13">
+        <v>-0.05565492406186209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01376000545175357</v>
+        <v>0.01663454137124205</v>
       </c>
       <c r="C14">
-        <v>0.01019737355196276</v>
+        <v>0.0007264525756436265</v>
       </c>
       <c r="D14">
-        <v>-0.00268518210435481</v>
+        <v>0.005509470645527819</v>
       </c>
       <c r="E14">
-        <v>-0.04447967886999779</v>
+        <v>-0.01338627816778278</v>
       </c>
       <c r="F14">
-        <v>0.05324275220091558</v>
+        <v>-0.01241537287852033</v>
       </c>
       <c r="G14">
-        <v>-0.06674646058807117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04309019122698299</v>
+      </c>
+      <c r="H14">
+        <v>-0.002043777377406282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02811776162568891</v>
+        <v>0.02346931917737924</v>
       </c>
       <c r="C16">
-        <v>0.0186698147222807</v>
+        <v>-0.009196393140342797</v>
       </c>
       <c r="D16">
-        <v>0.01644118571715607</v>
+        <v>0.03312415105294847</v>
       </c>
       <c r="E16">
-        <v>-0.02763097655941078</v>
+        <v>-0.003441619634853312</v>
       </c>
       <c r="F16">
-        <v>0.04948542473957159</v>
+        <v>-0.01644879264861492</v>
       </c>
       <c r="G16">
-        <v>-0.02954209256276014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02492130144323837</v>
+      </c>
+      <c r="H16">
+        <v>-0.03744860091919342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04696064431163373</v>
+        <v>0.03582414712228187</v>
       </c>
       <c r="C19">
-        <v>0.01739487167105096</v>
+        <v>-0.0003034636694496407</v>
       </c>
       <c r="D19">
-        <v>0.01983885489486811</v>
+        <v>0.01775832621500424</v>
       </c>
       <c r="E19">
-        <v>-0.04557029928841278</v>
+        <v>-0.003264149701480541</v>
       </c>
       <c r="F19">
-        <v>0.09790941539483201</v>
+        <v>-0.01689244583639028</v>
       </c>
       <c r="G19">
-        <v>-0.04145901617621078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05928452233056396</v>
+      </c>
+      <c r="H19">
+        <v>-0.07142425909234373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.00164762923070812</v>
+        <v>0.009896767738853562</v>
       </c>
       <c r="C20">
-        <v>0.01449846897534054</v>
+        <v>0.006470536123393354</v>
       </c>
       <c r="D20">
-        <v>-0.0007330982807073531</v>
+        <v>0.007210350474772198</v>
       </c>
       <c r="E20">
-        <v>-0.03984586875858161</v>
+        <v>-0.003562575004832818</v>
       </c>
       <c r="F20">
-        <v>0.07012385295974884</v>
+        <v>-0.01077710704133021</v>
       </c>
       <c r="G20">
-        <v>-0.07512765111883743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05026400258863113</v>
+      </c>
+      <c r="H20">
+        <v>-0.0116040430912737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0008663808827165141</v>
+        <v>0.0184091496905596</v>
       </c>
       <c r="C21">
-        <v>-0.007827020021322705</v>
+        <v>0.007053141629343796</v>
       </c>
       <c r="D21">
-        <v>0.008175834484286189</v>
+        <v>0.008904296620437313</v>
       </c>
       <c r="E21">
-        <v>-0.03438553293467998</v>
+        <v>-0.0167277715201665</v>
       </c>
       <c r="F21">
-        <v>0.05629105648811383</v>
+        <v>-0.003754681039159576</v>
       </c>
       <c r="G21">
-        <v>-0.02948124098308283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0510607461267351</v>
+      </c>
+      <c r="H21">
+        <v>-0.03377906690596415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03279287596371509</v>
+        <v>0.02106909728943612</v>
       </c>
       <c r="C24">
-        <v>0.01961890386143726</v>
+        <v>-0.003485591961760136</v>
       </c>
       <c r="D24">
-        <v>0.008937512230885515</v>
+        <v>0.03376669655214235</v>
       </c>
       <c r="E24">
-        <v>-0.01138797158031485</v>
+        <v>-0.000408563038865165</v>
       </c>
       <c r="F24">
-        <v>0.04297027578580918</v>
+        <v>-0.01037437295771819</v>
       </c>
       <c r="G24">
-        <v>-0.02316756932085796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02079394888503711</v>
+      </c>
+      <c r="H24">
+        <v>-0.04040583025467819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03077349680223907</v>
+        <v>0.03023613857896603</v>
       </c>
       <c r="C25">
-        <v>0.01095972964387327</v>
+        <v>-0.001283932813685884</v>
       </c>
       <c r="D25">
-        <v>0.01609190275083032</v>
+        <v>0.03318315967781525</v>
       </c>
       <c r="E25">
-        <v>-0.03890853134844707</v>
+        <v>-0.004839916119574935</v>
       </c>
       <c r="F25">
-        <v>0.04231925512173244</v>
+        <v>-0.0160128042049095</v>
       </c>
       <c r="G25">
-        <v>-0.00890470321544593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02469355264330266</v>
+      </c>
+      <c r="H25">
+        <v>-0.04398049489439809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02101560968499852</v>
+        <v>0.02117177568239959</v>
       </c>
       <c r="C26">
-        <v>0.004180519104148586</v>
+        <v>0.01662155285564164</v>
       </c>
       <c r="D26">
-        <v>0.03083499230420028</v>
+        <v>0.003446844029681511</v>
       </c>
       <c r="E26">
-        <v>-0.02518033165048999</v>
+        <v>0.001703938106911813</v>
       </c>
       <c r="F26">
-        <v>0.06778433032125837</v>
+        <v>-0.0009187190388560766</v>
       </c>
       <c r="G26">
-        <v>-0.03519573121680106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03250394180282815</v>
+      </c>
+      <c r="H26">
+        <v>-0.01835382100701952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06741300741549712</v>
+        <v>0.02700791065951682</v>
       </c>
       <c r="C27">
-        <v>0.03158522941321711</v>
+        <v>-0.01051031478786237</v>
       </c>
       <c r="D27">
-        <v>-0.02960616162505503</v>
+        <v>0.01449658220595903</v>
       </c>
       <c r="E27">
-        <v>-0.04139271942634858</v>
+        <v>-0.008133070788879194</v>
       </c>
       <c r="F27">
-        <v>0.05024123662615346</v>
+        <v>-0.01836280624621387</v>
       </c>
       <c r="G27">
-        <v>-0.03826015029556323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01871157194008221</v>
+      </c>
+      <c r="H27">
+        <v>-0.005425482486769432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0444145694588269</v>
+        <v>0.1433199658748795</v>
       </c>
       <c r="C28">
-        <v>-0.0456678460428686</v>
+        <v>-0.0276409470289814</v>
       </c>
       <c r="D28">
-        <v>-0.1155558766012713</v>
+        <v>-0.2272463675008224</v>
       </c>
       <c r="E28">
-        <v>0.1443576740233024</v>
+        <v>0.01084147804694451</v>
       </c>
       <c r="F28">
-        <v>0.05839205036343406</v>
+        <v>0.05469180589915967</v>
       </c>
       <c r="G28">
-        <v>0.03027836976144028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01387582202866023</v>
+      </c>
+      <c r="H28">
+        <v>0.01287082763360864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0217755182588496</v>
+        <v>0.0213957608941863</v>
       </c>
       <c r="C29">
-        <v>0.01163672527877656</v>
+        <v>-0.001489009266817481</v>
       </c>
       <c r="D29">
-        <v>-0.005677062728847729</v>
+        <v>0.00849019338568641</v>
       </c>
       <c r="E29">
-        <v>-0.05787654324722817</v>
+        <v>-0.01355832465138943</v>
       </c>
       <c r="F29">
-        <v>0.04232647898498487</v>
+        <v>-0.01563408937987133</v>
       </c>
       <c r="G29">
-        <v>-0.05739043146331533</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03900666436969161</v>
+      </c>
+      <c r="H29">
+        <v>0.001931319660223924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09522717457738641</v>
+        <v>0.05427215594721557</v>
       </c>
       <c r="C30">
-        <v>0.0618255450216999</v>
+        <v>0.003389010019297735</v>
       </c>
       <c r="D30">
-        <v>0.01416661298323212</v>
+        <v>0.07047188685524554</v>
       </c>
       <c r="E30">
-        <v>-0.07292893738479887</v>
+        <v>0.02840370688151364</v>
       </c>
       <c r="F30">
-        <v>0.0837354855593873</v>
+        <v>-0.05390238670491934</v>
       </c>
       <c r="G30">
-        <v>-0.0524441849392828</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05541925143151118</v>
+      </c>
+      <c r="H30">
+        <v>-0.06347112663651945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06338240195877735</v>
+        <v>0.05606561586310202</v>
       </c>
       <c r="C31">
-        <v>0.02349842280901641</v>
+        <v>-0.01530695774657274</v>
       </c>
       <c r="D31">
-        <v>0.02879488267082288</v>
+        <v>0.02402292641575509</v>
       </c>
       <c r="E31">
-        <v>-0.009409079795542039</v>
+        <v>0.004361563244320321</v>
       </c>
       <c r="F31">
-        <v>0.04190550257120442</v>
+        <v>-0.01268880505825926</v>
       </c>
       <c r="G31">
-        <v>-0.05890560715471407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01858402235299211</v>
+      </c>
+      <c r="H31">
+        <v>-0.01029372021002059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02262461870611404</v>
+        <v>0.01090787063925469</v>
       </c>
       <c r="C32">
-        <v>0.0209311386159099</v>
+        <v>-0.0134816090133173</v>
       </c>
       <c r="D32">
-        <v>0.008630852865342828</v>
+        <v>0.001502411113177262</v>
       </c>
       <c r="E32">
-        <v>-0.08702260240909167</v>
+        <v>-0.03124334330615695</v>
       </c>
       <c r="F32">
-        <v>0.06015275572096641</v>
+        <v>-0.03356998959812346</v>
       </c>
       <c r="G32">
-        <v>-0.04938286591128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03496699006363383</v>
+      </c>
+      <c r="H32">
+        <v>-0.05985623127583118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05133254642425538</v>
+        <v>0.04044773472162893</v>
       </c>
       <c r="C33">
-        <v>0.01089592643412429</v>
+        <v>-0.001709710347933711</v>
       </c>
       <c r="D33">
-        <v>0.04730333089770065</v>
+        <v>0.03132944656319952</v>
       </c>
       <c r="E33">
-        <v>-0.04484608648015558</v>
+        <v>0.02374766829918757</v>
       </c>
       <c r="F33">
-        <v>0.09031659661189131</v>
+        <v>-0.00250310647979526</v>
       </c>
       <c r="G33">
-        <v>-0.05671196192078909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05032766004878086</v>
+      </c>
+      <c r="H33">
+        <v>-0.04278097243423341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03502703623165281</v>
+        <v>0.027982055918373</v>
       </c>
       <c r="C34">
-        <v>0.02124379038288718</v>
+        <v>-0.01772847083364453</v>
       </c>
       <c r="D34">
-        <v>0.01232496777472972</v>
+        <v>0.03448266212326767</v>
       </c>
       <c r="E34">
-        <v>-0.03647996527950405</v>
+        <v>-0.009481490472345049</v>
       </c>
       <c r="F34">
-        <v>0.05587480386767221</v>
+        <v>-0.01757581142481558</v>
       </c>
       <c r="G34">
-        <v>-0.01513877016717391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02260452302358744</v>
+      </c>
+      <c r="H34">
+        <v>-0.03724658708435286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01664366368846814</v>
+        <v>0.02168188739235638</v>
       </c>
       <c r="C36">
-        <v>0.005760700464921332</v>
+        <v>0.003624601552713455</v>
       </c>
       <c r="D36">
-        <v>-0.00164466653538207</v>
+        <v>-0.001001958485107718</v>
       </c>
       <c r="E36">
-        <v>-0.03357081109291358</v>
+        <v>-0.006396009298474872</v>
       </c>
       <c r="F36">
-        <v>0.03206654907022653</v>
+        <v>-0.004140016423765419</v>
       </c>
       <c r="G36">
-        <v>-0.03811377058781011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0211222927443246</v>
+      </c>
+      <c r="H36">
+        <v>-0.007717430113402222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002135897762310557</v>
+        <v>0.02431858547008497</v>
       </c>
       <c r="C38">
-        <v>-0.01303392451583831</v>
+        <v>-0.01658878845254083</v>
       </c>
       <c r="D38">
-        <v>0.01162137194736649</v>
+        <v>0.00200936212066066</v>
       </c>
       <c r="E38">
-        <v>0.01408074620189438</v>
+        <v>0.001063402605769458</v>
       </c>
       <c r="F38">
-        <v>0.04586911275519628</v>
+        <v>-0.005589886222795517</v>
       </c>
       <c r="G38">
-        <v>0.003121214357923125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02052954797945216</v>
+      </c>
+      <c r="H38">
+        <v>-0.04117767815349366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04316779548632526</v>
+        <v>0.02059700501067966</v>
       </c>
       <c r="C39">
-        <v>0.03744941499128564</v>
+        <v>-0.00172928133438601</v>
       </c>
       <c r="D39">
-        <v>0.02488869326479322</v>
+        <v>0.07528157552528932</v>
       </c>
       <c r="E39">
-        <v>-0.03910752536786344</v>
+        <v>0.001017198118112845</v>
       </c>
       <c r="F39">
-        <v>0.06553657690172214</v>
+        <v>-0.02241506016306741</v>
       </c>
       <c r="G39">
-        <v>-0.02516661465238912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04365279630666965</v>
+      </c>
+      <c r="H39">
+        <v>-0.07096688592195657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.04001614199168015</v>
+        <v>0.03437693214826713</v>
       </c>
       <c r="C40">
-        <v>0.06128559411549771</v>
+        <v>-0.002026242154045904</v>
       </c>
       <c r="D40">
-        <v>0.03577965231628723</v>
+        <v>0.01814659148642873</v>
       </c>
       <c r="E40">
-        <v>0.005801727076870663</v>
+        <v>0.02394809875256943</v>
       </c>
       <c r="F40">
-        <v>0.07939313116401306</v>
+        <v>-0.02787515527085643</v>
       </c>
       <c r="G40">
-        <v>-0.0530765565253603</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0245184022526429</v>
+      </c>
+      <c r="H40">
+        <v>-0.06380752852519962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-3.446517075406484e-05</v>
+        <v>0.01149766578851551</v>
       </c>
       <c r="C41">
-        <v>-0.001610505096516622</v>
+        <v>0.0004007224234696015</v>
       </c>
       <c r="D41">
-        <v>0.006855591613460528</v>
+        <v>-0.0135690759365379</v>
       </c>
       <c r="E41">
-        <v>-0.0102254151424992</v>
+        <v>0.002163661556748346</v>
       </c>
       <c r="F41">
-        <v>0.003578990729506816</v>
+        <v>0.001772421425759986</v>
       </c>
       <c r="G41">
-        <v>-0.04520108935969953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.004822523104988631</v>
+      </c>
+      <c r="H41">
+        <v>0.005041225277816707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3549873589107925</v>
+        <v>0.2045091656276642</v>
       </c>
       <c r="C42">
-        <v>-0.6833055148965529</v>
+        <v>0.07296827977985161</v>
       </c>
       <c r="D42">
-        <v>0.5314845752635291</v>
+        <v>0.3639994400037267</v>
       </c>
       <c r="E42">
-        <v>0.177903165213856</v>
+        <v>0.2286880984576647</v>
       </c>
       <c r="F42">
-        <v>-0.2269012621927397</v>
+        <v>0.8411529519972955</v>
       </c>
       <c r="G42">
-        <v>-0.05769676697764319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2000219861425011</v>
+      </c>
+      <c r="H42">
+        <v>0.04441736815202968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007277085914000109</v>
+        <v>0.01123639311126187</v>
       </c>
       <c r="C43">
-        <v>-0.007085058230283753</v>
+        <v>0.001874791191474247</v>
       </c>
       <c r="D43">
-        <v>0.01606337440260989</v>
+        <v>-0.0152106492711013</v>
       </c>
       <c r="E43">
-        <v>-0.01292273356950657</v>
+        <v>0.006768513515712542</v>
       </c>
       <c r="F43">
-        <v>0.02015973818126287</v>
+        <v>0.009263857553629374</v>
       </c>
       <c r="G43">
-        <v>-0.04191553771446028</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008580518591816088</v>
+      </c>
+      <c r="H43">
+        <v>-0.002138205125102592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01768481506888408</v>
+        <v>0.01501219566876032</v>
       </c>
       <c r="C44">
-        <v>-0.002481308842403316</v>
+        <v>-0.001392557145457389</v>
       </c>
       <c r="D44">
-        <v>0.01971546831923009</v>
+        <v>0.01811614019138084</v>
       </c>
       <c r="E44">
-        <v>-0.029949343864869</v>
+        <v>-0.004817868151144217</v>
       </c>
       <c r="F44">
-        <v>0.1117885910784191</v>
+        <v>0.005403888817969524</v>
       </c>
       <c r="G44">
-        <v>-0.07225459362638682</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04496814064087543</v>
+      </c>
+      <c r="H44">
+        <v>-0.05899147121273089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02008061258373311</v>
+        <v>0.01907027051902986</v>
       </c>
       <c r="C46">
-        <v>0.01156785815845121</v>
+        <v>0.003499403301006682</v>
       </c>
       <c r="D46">
-        <v>0.02444660610937418</v>
+        <v>0.01373246421648169</v>
       </c>
       <c r="E46">
-        <v>-0.05414180282785347</v>
+        <v>-0.001194256993391634</v>
       </c>
       <c r="F46">
-        <v>0.05782675829446496</v>
+        <v>-0.01498304099596259</v>
       </c>
       <c r="G46">
-        <v>-0.06184370774609627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0496058266463066</v>
+      </c>
+      <c r="H46">
+        <v>-0.01365997307567266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09907207020908763</v>
+        <v>0.07716231700951656</v>
       </c>
       <c r="C47">
-        <v>0.02904523043172244</v>
+        <v>-0.03081422181577264</v>
       </c>
       <c r="D47">
-        <v>0.01022188100804725</v>
+        <v>0.04085426746887857</v>
       </c>
       <c r="E47">
-        <v>-0.02536490893465894</v>
+        <v>-0.0009424232199578429</v>
       </c>
       <c r="F47">
-        <v>0.01654277818511417</v>
+        <v>-0.02286995331352589</v>
       </c>
       <c r="G47">
-        <v>-0.07606162299550813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007132920314295537</v>
+      </c>
+      <c r="H47">
+        <v>0.02142300849321829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01863252154292054</v>
+        <v>0.02316273221226772</v>
       </c>
       <c r="C48">
-        <v>0.007197206073154719</v>
+        <v>-0.007034566865066259</v>
       </c>
       <c r="D48">
-        <v>0.01372628063773801</v>
+        <v>0.005977306195794498</v>
       </c>
       <c r="E48">
-        <v>-0.03212026650714893</v>
+        <v>-0.001400604562479044</v>
       </c>
       <c r="F48">
-        <v>0.05053356445333107</v>
+        <v>-0.008546214841564434</v>
       </c>
       <c r="G48">
-        <v>-0.02237361918251843</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02739691313212014</v>
+      </c>
+      <c r="H48">
+        <v>-0.01762496832522202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09215019681624315</v>
+        <v>0.07505036053899121</v>
       </c>
       <c r="C50">
-        <v>0.0248534978078623</v>
+        <v>-0.0278608811648956</v>
       </c>
       <c r="D50">
-        <v>0.02169094071518023</v>
+        <v>0.04151461618752803</v>
       </c>
       <c r="E50">
-        <v>-0.03834219623393239</v>
+        <v>-0.01981680087317092</v>
       </c>
       <c r="F50">
-        <v>0.04775503860234996</v>
+        <v>-0.01718191733521319</v>
       </c>
       <c r="G50">
-        <v>-0.0367860752525984</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01641739229546009</v>
+      </c>
+      <c r="H50">
+        <v>0.0004779253646157187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01719483497586017</v>
+        <v>0.01881781273386064</v>
       </c>
       <c r="C51">
-        <v>-0.008704925962749938</v>
+        <v>0.0013854781041131</v>
       </c>
       <c r="D51">
-        <v>0.01252997852275542</v>
+        <v>-0.009011859911912211</v>
       </c>
       <c r="E51">
-        <v>-0.001329903886847514</v>
+        <v>0.0008747838303049322</v>
       </c>
       <c r="F51">
-        <v>0.1193425966646398</v>
+        <v>0.01309743986323987</v>
       </c>
       <c r="G51">
-        <v>-0.03934579392284073</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0505770781734588</v>
+      </c>
+      <c r="H51">
+        <v>-0.05162402341364472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1068397550994574</v>
+        <v>0.09451258120810643</v>
       </c>
       <c r="C53">
-        <v>0.04742882454362169</v>
+        <v>-0.0378382593790817</v>
       </c>
       <c r="D53">
-        <v>0.01584678626402446</v>
+        <v>0.07688129850013116</v>
       </c>
       <c r="E53">
-        <v>-0.04016629931739657</v>
+        <v>-0.008716348210831412</v>
       </c>
       <c r="F53">
-        <v>-0.05223457957047956</v>
+        <v>-0.05081316542057243</v>
       </c>
       <c r="G53">
-        <v>-0.01375684040190197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04155486892628191</v>
+      </c>
+      <c r="H53">
+        <v>0.04282596145214616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01443266064052339</v>
+        <v>0.02547237209554019</v>
       </c>
       <c r="C54">
-        <v>0.01011126555453092</v>
+        <v>-0.01134265118134818</v>
       </c>
       <c r="D54">
-        <v>-0.005630859796220786</v>
+        <v>-0.01183638677729036</v>
       </c>
       <c r="E54">
-        <v>-0.03278633403253736</v>
+        <v>-0.006918846362102524</v>
       </c>
       <c r="F54">
-        <v>0.05803899201388893</v>
+        <v>-0.005085534845929337</v>
       </c>
       <c r="G54">
-        <v>-0.05989498024933672</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03922090385052337</v>
+      </c>
+      <c r="H54">
+        <v>0.002932534133024409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1021276528292933</v>
+        <v>0.07795593233810111</v>
       </c>
       <c r="C55">
-        <v>0.02657339219519185</v>
+        <v>-0.03249214689774731</v>
       </c>
       <c r="D55">
-        <v>-0.005119087699132721</v>
+        <v>0.07454212296966672</v>
       </c>
       <c r="E55">
-        <v>-0.06076727473674869</v>
+        <v>-0.01557886627931225</v>
       </c>
       <c r="F55">
-        <v>-0.04114962580607406</v>
+        <v>-0.04038692957126251</v>
       </c>
       <c r="G55">
-        <v>-0.07422801179712926</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01834316523887068</v>
+      </c>
+      <c r="H55">
+        <v>0.05202189052490854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1466740577833415</v>
+        <v>0.1289543856784775</v>
       </c>
       <c r="C56">
-        <v>0.0897134253527094</v>
+        <v>-0.05763637374644642</v>
       </c>
       <c r="D56">
-        <v>-0.01978085534414849</v>
+        <v>0.09624454719807814</v>
       </c>
       <c r="E56">
-        <v>-0.05306077187705666</v>
+        <v>-0.01294832305291238</v>
       </c>
       <c r="F56">
-        <v>-0.1114106784819475</v>
+        <v>-0.08245763923771161</v>
       </c>
       <c r="G56">
-        <v>0.03605631893499382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07519277993028259</v>
+      </c>
+      <c r="H56">
+        <v>0.04942509003952987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04919258374552701</v>
+        <v>0.04172985212579321</v>
       </c>
       <c r="C57">
-        <v>0.0006316059505015399</v>
+        <v>0.009217853551670258</v>
       </c>
       <c r="D57">
-        <v>0.01302413883943821</v>
+        <v>0.02499688355537772</v>
       </c>
       <c r="E57">
-        <v>0.007325345144420481</v>
+        <v>0.004065103942551089</v>
       </c>
       <c r="F57">
-        <v>0.08586796715153433</v>
+        <v>-0.0132276874165074</v>
       </c>
       <c r="G57">
-        <v>-0.06962683181718893</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05757721822367431</v>
+      </c>
+      <c r="H57">
+        <v>-0.04234739617176751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2124043638326541</v>
+        <v>0.1521950929445706</v>
       </c>
       <c r="C58">
-        <v>0.05985985997038722</v>
+        <v>-0.04528293599648633</v>
       </c>
       <c r="D58">
-        <v>0.1336454826007742</v>
+        <v>0.1555174023333858</v>
       </c>
       <c r="E58">
-        <v>-0.1519451920048423</v>
+        <v>0.1674401486867768</v>
       </c>
       <c r="F58">
-        <v>0.3128635311440723</v>
+        <v>0.03586221859356122</v>
       </c>
       <c r="G58">
-        <v>-0.1265803668937398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8280408663095065</v>
+      </c>
+      <c r="H58">
+        <v>0.3680907545004459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04783939701268002</v>
+        <v>0.1504731216171225</v>
       </c>
       <c r="C59">
-        <v>-0.0009258467908515762</v>
+        <v>-0.03607324459068295</v>
       </c>
       <c r="D59">
-        <v>-0.09985880983438211</v>
+        <v>-0.2279762532370968</v>
       </c>
       <c r="E59">
-        <v>0.1347400202764227</v>
+        <v>0.0291910400108346</v>
       </c>
       <c r="F59">
-        <v>0.07182256515202586</v>
+        <v>0.03216241099437775</v>
       </c>
       <c r="G59">
-        <v>0.04207493417275775</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.008392306527194691</v>
+      </c>
+      <c r="H59">
+        <v>-0.01578806919347752</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1697919233152695</v>
+        <v>0.1758435949320464</v>
       </c>
       <c r="C60">
-        <v>0.04132234359048761</v>
+        <v>-0.0382187670157656</v>
       </c>
       <c r="D60">
-        <v>0.05920738615017938</v>
+        <v>0.01714466919178901</v>
       </c>
       <c r="E60">
-        <v>0.0320056429986846</v>
+        <v>0.04628074416617647</v>
       </c>
       <c r="F60">
-        <v>0.1693491962155793</v>
+        <v>-0.03872278256410435</v>
       </c>
       <c r="G60">
-        <v>0.3012755528531884</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.03908454803974249</v>
+      </c>
+      <c r="H60">
+        <v>-0.3932782980172337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02202839522994464</v>
+        <v>0.02167518483362539</v>
       </c>
       <c r="C61">
-        <v>0.005992575598050001</v>
+        <v>-0.006580138831600913</v>
       </c>
       <c r="D61">
-        <v>0.01291328109910948</v>
+        <v>0.04146997763222377</v>
       </c>
       <c r="E61">
-        <v>-0.02145784580063939</v>
+        <v>-0.005525920944602801</v>
       </c>
       <c r="F61">
-        <v>0.03400860291909753</v>
+        <v>-0.01745146423645891</v>
       </c>
       <c r="G61">
-        <v>-0.02144673636242119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02514107527794231</v>
+      </c>
+      <c r="H61">
+        <v>-0.04958666489821443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0165470624547037</v>
+        <v>0.01302533806420109</v>
       </c>
       <c r="C63">
-        <v>0.01207055678229609</v>
+        <v>0.00198432692250639</v>
       </c>
       <c r="D63">
-        <v>0.0158748379408484</v>
+        <v>0.01534417002499457</v>
       </c>
       <c r="E63">
-        <v>-0.04499613849414792</v>
+        <v>-0.005201736582886789</v>
       </c>
       <c r="F63">
-        <v>0.01423395932124097</v>
+        <v>-0.0154130907711922</v>
       </c>
       <c r="G63">
-        <v>-0.04019541600360257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01651173680882843</v>
+      </c>
+      <c r="H63">
+        <v>-0.001916954469776156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03517956997176491</v>
+        <v>0.04105351999202669</v>
       </c>
       <c r="C64">
-        <v>0.002422120870465078</v>
+        <v>-0.01017022704499084</v>
       </c>
       <c r="D64">
-        <v>-0.01259528419499209</v>
+        <v>0.03726224941264138</v>
       </c>
       <c r="E64">
-        <v>-0.05619818262257025</v>
+        <v>-0.01177186302801566</v>
       </c>
       <c r="F64">
-        <v>0.01772773993574973</v>
+        <v>-0.005825341615282855</v>
       </c>
       <c r="G64">
-        <v>-0.05985649116513915</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.00769242733891334</v>
+      </c>
+      <c r="H64">
+        <v>-0.03767339909660773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01466395546263567</v>
+        <v>0.02910313081999697</v>
       </c>
       <c r="C65">
-        <v>0.009149478969848572</v>
+        <v>0.004374034544164128</v>
       </c>
       <c r="D65">
-        <v>0.01894626344388669</v>
+        <v>0.05895411760058768</v>
       </c>
       <c r="E65">
-        <v>-0.0218789783831043</v>
+        <v>-0.01144295605934284</v>
       </c>
       <c r="F65">
-        <v>0.007823177773943743</v>
+        <v>-0.03368737121592211</v>
       </c>
       <c r="G65">
-        <v>0.001984116860349747</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002504839863814833</v>
+      </c>
+      <c r="H65">
+        <v>-0.0590010989015423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04640959021862116</v>
+        <v>0.02746139750796022</v>
       </c>
       <c r="C66">
-        <v>0.03832390949529681</v>
+        <v>-0.006715640882343908</v>
       </c>
       <c r="D66">
-        <v>0.02576363051107498</v>
+        <v>0.08753272192401747</v>
       </c>
       <c r="E66">
-        <v>-0.03602045754073604</v>
+        <v>0.001987232643010278</v>
       </c>
       <c r="F66">
-        <v>0.06042644590375593</v>
+        <v>-0.03954956942327321</v>
       </c>
       <c r="G66">
-        <v>-0.01767988518828668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03556331881772744</v>
+      </c>
+      <c r="H66">
+        <v>-0.07351501912457628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01580730260243311</v>
+        <v>0.04449498708510768</v>
       </c>
       <c r="C67">
-        <v>-0.009274898745064432</v>
+        <v>-0.01985500812182505</v>
       </c>
       <c r="D67">
-        <v>0.007264598437047633</v>
+        <v>-0.004940191262332224</v>
       </c>
       <c r="E67">
-        <v>0.03633120725935086</v>
+        <v>0.004242922952165698</v>
       </c>
       <c r="F67">
-        <v>0.03374285472819361</v>
+        <v>-0.01071670456586101</v>
       </c>
       <c r="G67">
-        <v>0.01238126238351573</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.003421232299425941</v>
+      </c>
+      <c r="H67">
+        <v>-0.04135221991549167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06387310213973664</v>
+        <v>0.1516452989134593</v>
       </c>
       <c r="C68">
-        <v>-0.01622534608541304</v>
+        <v>-0.01617633518721594</v>
       </c>
       <c r="D68">
-        <v>-0.1364719179312671</v>
+        <v>-0.2228520143883379</v>
       </c>
       <c r="E68">
-        <v>0.1392915204595179</v>
+        <v>0.02275677133152669</v>
       </c>
       <c r="F68">
-        <v>0.05548108327052419</v>
+        <v>0.05148865908096728</v>
       </c>
       <c r="G68">
-        <v>0.08619431925774815</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0206213254134233</v>
+      </c>
+      <c r="H68">
+        <v>0.03817268918036103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0721669168229835</v>
+        <v>0.05945466835148463</v>
       </c>
       <c r="C69">
-        <v>0.03269058787887115</v>
+        <v>-0.02893468751229165</v>
       </c>
       <c r="D69">
-        <v>0.008138805719466515</v>
+        <v>0.03625901550573322</v>
       </c>
       <c r="E69">
-        <v>-0.003059102761662711</v>
+        <v>0.001406277341896415</v>
       </c>
       <c r="F69">
-        <v>0.01490731635927849</v>
+        <v>-0.03024983004650123</v>
       </c>
       <c r="G69">
-        <v>-0.07978738162481105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01332245124851381</v>
+      </c>
+      <c r="H69">
+        <v>-0.001762284080165776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07332722649070902</v>
+        <v>0.1437679645041868</v>
       </c>
       <c r="C71">
-        <v>-0.03170956151300664</v>
+        <v>-0.02401978668392792</v>
       </c>
       <c r="D71">
-        <v>-0.1181640333446806</v>
+        <v>-0.2027006196746486</v>
       </c>
       <c r="E71">
-        <v>0.1948101213969605</v>
+        <v>0.02919035624188837</v>
       </c>
       <c r="F71">
-        <v>0.08120112370238765</v>
+        <v>0.06044824504523352</v>
       </c>
       <c r="G71">
-        <v>0.04418948415865107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02080396500590478</v>
+      </c>
+      <c r="H71">
+        <v>0.02928624573963507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.115074614792386</v>
+        <v>0.08383276473054412</v>
       </c>
       <c r="C72">
-        <v>0.08888293267343116</v>
+        <v>-0.04082059754533703</v>
       </c>
       <c r="D72">
-        <v>-0.003780356740272234</v>
+        <v>0.07646357179726009</v>
       </c>
       <c r="E72">
-        <v>-0.02762653813676443</v>
+        <v>0.007163635152952298</v>
       </c>
       <c r="F72">
-        <v>0.1066770339027864</v>
+        <v>-0.08283828894837555</v>
       </c>
       <c r="G72">
-        <v>0.06013435443154848</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05282217462193884</v>
+      </c>
+      <c r="H72">
+        <v>-0.1644839430612277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2519559682357937</v>
+        <v>0.240338562894381</v>
       </c>
       <c r="C73">
-        <v>0.04641913805342412</v>
+        <v>-0.04895605499808212</v>
       </c>
       <c r="D73">
-        <v>0.05742446685845488</v>
+        <v>0.05492049334590082</v>
       </c>
       <c r="E73">
-        <v>0.1101178317403646</v>
+        <v>0.07736783739954949</v>
       </c>
       <c r="F73">
-        <v>0.2928614638531555</v>
+        <v>-0.03493599703200865</v>
       </c>
       <c r="G73">
-        <v>0.3960182345726954</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.05913184880907412</v>
+      </c>
+      <c r="H73">
+        <v>-0.5122242036681113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.140849160736616</v>
+        <v>0.1213267133266964</v>
       </c>
       <c r="C74">
-        <v>0.04236617476698006</v>
+        <v>-0.05396053634788129</v>
       </c>
       <c r="D74">
-        <v>-0.01584185489281389</v>
+        <v>0.09693080324706752</v>
       </c>
       <c r="E74">
-        <v>-0.02917878538054676</v>
+        <v>-0.009261830175945486</v>
       </c>
       <c r="F74">
-        <v>-0.0719003672205107</v>
+        <v>-0.06191489750329299</v>
       </c>
       <c r="G74">
-        <v>0.0326235426028483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05807353515865863</v>
+      </c>
+      <c r="H74">
+        <v>0.03402843467187803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.234611322827074</v>
+        <v>0.2324958565631359</v>
       </c>
       <c r="C75">
-        <v>0.150486261893705</v>
+        <v>-0.1049456730994818</v>
       </c>
       <c r="D75">
-        <v>-0.02373336768034364</v>
+        <v>0.1512568482224264</v>
       </c>
       <c r="E75">
-        <v>-0.05855605015633325</v>
+        <v>0.001941965739005767</v>
       </c>
       <c r="F75">
-        <v>-0.1341055849979231</v>
+        <v>-0.148856747229401</v>
       </c>
       <c r="G75">
-        <v>-0.001128196087762198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.126628270432893</v>
+      </c>
+      <c r="H75">
+        <v>0.1155228094247618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2838225832741949</v>
+        <v>0.2056922178635834</v>
       </c>
       <c r="C76">
-        <v>0.1416350188527345</v>
+        <v>-0.0980818333040607</v>
       </c>
       <c r="D76">
-        <v>-0.09583955394324627</v>
+        <v>0.1465794159567655</v>
       </c>
       <c r="E76">
-        <v>-0.07728331081262851</v>
+        <v>-0.04858172419596259</v>
       </c>
       <c r="F76">
-        <v>-0.1849855467773238</v>
+        <v>-0.1449852477572766</v>
       </c>
       <c r="G76">
-        <v>-0.0075471899646185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1241702001421045</v>
+      </c>
+      <c r="H76">
+        <v>0.1257837016499319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1389275508908403</v>
+        <v>0.07223260228023914</v>
       </c>
       <c r="C77">
-        <v>-0.03115769534662049</v>
+        <v>-0.01011721971077892</v>
       </c>
       <c r="D77">
-        <v>0.08071146131988731</v>
+        <v>0.06770514742180374</v>
       </c>
       <c r="E77">
-        <v>-0.07118525604496405</v>
+        <v>0.01618157376835838</v>
       </c>
       <c r="F77">
-        <v>0.1818924700451765</v>
+        <v>0.03156478805125392</v>
       </c>
       <c r="G77">
-        <v>-0.1500633822711408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09355975668113428</v>
+      </c>
+      <c r="H77">
+        <v>0.003812229739654675</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06116099551032387</v>
+        <v>0.03849497311994814</v>
       </c>
       <c r="C78">
-        <v>0.02265194082809339</v>
+        <v>-0.01096983892971668</v>
       </c>
       <c r="D78">
-        <v>0.03119720511271759</v>
+        <v>0.06153329040566562</v>
       </c>
       <c r="E78">
-        <v>-0.09626945412415633</v>
+        <v>-0.00828916822158391</v>
       </c>
       <c r="F78">
-        <v>0.0529746635965939</v>
+        <v>-0.02334084780840691</v>
       </c>
       <c r="G78">
-        <v>-0.03873270978665955</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04675143293348249</v>
+      </c>
+      <c r="H78">
+        <v>-0.06378362607411106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1246188598461865</v>
+        <v>0.1417307197494851</v>
       </c>
       <c r="C80">
-        <v>-0.5678572348979629</v>
+        <v>-0.03919218967642136</v>
       </c>
       <c r="D80">
-        <v>-0.5887151453989378</v>
+        <v>0.03453548597063918</v>
       </c>
       <c r="E80">
-        <v>-0.5244848756649931</v>
+        <v>-0.9379395311334249</v>
       </c>
       <c r="F80">
-        <v>0.03647376029564858</v>
+        <v>0.2462826332254148</v>
       </c>
       <c r="G80">
-        <v>0.09445895757791765</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1220507468470582</v>
+      </c>
+      <c r="H80">
+        <v>-0.01007745664343807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1748827668576551</v>
+        <v>0.1519531016523712</v>
       </c>
       <c r="C81">
-        <v>0.1033369538589638</v>
+        <v>-0.06769917485808297</v>
       </c>
       <c r="D81">
-        <v>-0.04427327170652474</v>
+        <v>0.09409511879625335</v>
       </c>
       <c r="E81">
-        <v>-0.0411608392832738</v>
+        <v>-0.01772823279190519</v>
       </c>
       <c r="F81">
-        <v>-0.1297733294695182</v>
+        <v>-0.09090536014845735</v>
       </c>
       <c r="G81">
-        <v>0.01752958518803913</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07871444396716368</v>
+      </c>
+      <c r="H81">
+        <v>0.08001418008457907</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05035603650168519</v>
+        <v>0.03413163893056125</v>
       </c>
       <c r="C83">
-        <v>-0.002621306065211391</v>
+        <v>-0.006410392350962926</v>
       </c>
       <c r="D83">
-        <v>0.03547081050381797</v>
+        <v>0.01979469985957024</v>
       </c>
       <c r="E83">
-        <v>-0.01438769372483781</v>
+        <v>0.005804205864617978</v>
       </c>
       <c r="F83">
-        <v>0.05948962579788301</v>
+        <v>-0.002696996560445152</v>
       </c>
       <c r="G83">
-        <v>-0.03486084043224019</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04306765227608277</v>
+      </c>
+      <c r="H83">
+        <v>-0.04292769111494999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2532096915038004</v>
+        <v>0.2183253516014559</v>
       </c>
       <c r="C85">
-        <v>0.1325368308063162</v>
+        <v>-0.08744059462033199</v>
       </c>
       <c r="D85">
-        <v>-0.0426677497427091</v>
+        <v>0.1537997743484938</v>
       </c>
       <c r="E85">
-        <v>-0.06633860337209566</v>
+        <v>-0.004877056371681949</v>
       </c>
       <c r="F85">
-        <v>-0.1390109161028361</v>
+        <v>-0.1349564230766168</v>
       </c>
       <c r="G85">
-        <v>-0.05162088683367302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1380495228904385</v>
+      </c>
+      <c r="H85">
+        <v>0.0910951406108725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004103753089410156</v>
+        <v>0.0222758475146385</v>
       </c>
       <c r="C86">
-        <v>-0.004570403495210371</v>
+        <v>0.0001187086022156566</v>
       </c>
       <c r="D86">
-        <v>0.01835156336143778</v>
+        <v>0.004995380819725103</v>
       </c>
       <c r="E86">
-        <v>-0.05549905806494437</v>
+        <v>0.009357017323611877</v>
       </c>
       <c r="F86">
-        <v>0.05826428870454043</v>
+        <v>0.01797935555221692</v>
       </c>
       <c r="G86">
-        <v>-0.003936508229149258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06349858739504305</v>
+      </c>
+      <c r="H86">
+        <v>-0.0774125253883047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03606848250328702</v>
+        <v>0.0294131469175031</v>
       </c>
       <c r="C87">
-        <v>-0.004813856664772902</v>
+        <v>-0.003316882773465335</v>
       </c>
       <c r="D87">
-        <v>0.001347457176128084</v>
+        <v>0.03165418051615643</v>
       </c>
       <c r="E87">
-        <v>-0.04423917515890984</v>
+        <v>-0.005990418307173533</v>
       </c>
       <c r="F87">
-        <v>0.1042019456514179</v>
+        <v>-0.006024850182592368</v>
       </c>
       <c r="G87">
-        <v>-0.04694187777348834</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07937069961972701</v>
+      </c>
+      <c r="H87">
+        <v>-0.06912069908244803</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01029810757308325</v>
+        <v>0.03850928790840093</v>
       </c>
       <c r="C88">
-        <v>0.005088168126730411</v>
+        <v>0.01023130222446212</v>
       </c>
       <c r="D88">
-        <v>-0.01829366252774377</v>
+        <v>0.002769175151211957</v>
       </c>
       <c r="E88">
-        <v>0.002570899204624391</v>
+        <v>-0.009015472521017899</v>
       </c>
       <c r="F88">
-        <v>0.0135313419837695</v>
+        <v>-0.01145957754865328</v>
       </c>
       <c r="G88">
-        <v>-0.05221157333783106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.003502323713520031</v>
+      </c>
+      <c r="H88">
+        <v>-0.01092833426831884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08786380314136445</v>
+        <v>0.2375464799459204</v>
       </c>
       <c r="C89">
-        <v>-0.0439384239577446</v>
+        <v>-0.03590534872349423</v>
       </c>
       <c r="D89">
-        <v>-0.1652019398141489</v>
+        <v>-0.3540109167832159</v>
       </c>
       <c r="E89">
-        <v>0.257514436416908</v>
+        <v>0.04678166920994708</v>
       </c>
       <c r="F89">
-        <v>0.1341895896716765</v>
+        <v>0.06668197016424814</v>
       </c>
       <c r="G89">
-        <v>0.0153373281625252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02746490374390087</v>
+      </c>
+      <c r="H89">
+        <v>0.01597655828205614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07741711596093111</v>
+        <v>0.1914858787709345</v>
       </c>
       <c r="C90">
-        <v>-0.06821535741758716</v>
+        <v>-0.02903246667423406</v>
       </c>
       <c r="D90">
-        <v>-0.2130504188719999</v>
+        <v>-0.3137262940575424</v>
       </c>
       <c r="E90">
-        <v>0.258608829087957</v>
+        <v>0.0357250282377908</v>
       </c>
       <c r="F90">
-        <v>0.09598195285476596</v>
+        <v>0.08146364074874395</v>
       </c>
       <c r="G90">
-        <v>0.01393735311317183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02801222897271717</v>
+      </c>
+      <c r="H90">
+        <v>0.06480815785776017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3077629062054055</v>
+        <v>0.2367275144851704</v>
       </c>
       <c r="C91">
-        <v>0.1411908349204572</v>
+        <v>-0.1052162183938648</v>
       </c>
       <c r="D91">
-        <v>-0.03722526909275428</v>
+        <v>0.1446959295033809</v>
       </c>
       <c r="E91">
-        <v>-0.02740836433732422</v>
+        <v>-0.003826088916797436</v>
       </c>
       <c r="F91">
-        <v>-0.2390399779803731</v>
+        <v>-0.1403257208402175</v>
       </c>
       <c r="G91">
-        <v>0.03170011157406716</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.150883045749362</v>
+      </c>
+      <c r="H91">
+        <v>0.1670498824648837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1658333086291021</v>
+        <v>0.2355466791312001</v>
       </c>
       <c r="C92">
-        <v>-0.02226535495178924</v>
+        <v>-0.09140376927331714</v>
       </c>
       <c r="D92">
-        <v>-0.2942054554012419</v>
+        <v>-0.2422141433887471</v>
       </c>
       <c r="E92">
-        <v>0.364525404985391</v>
+        <v>0.02019793094614897</v>
       </c>
       <c r="F92">
-        <v>-0.0467727987038665</v>
+        <v>0.03608988317363741</v>
       </c>
       <c r="G92">
-        <v>-0.6173844661104502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.00805091075464248</v>
+      </c>
+      <c r="H92">
+        <v>0.1557741532319082</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08385492980785786</v>
+        <v>0.2150117466095851</v>
       </c>
       <c r="C93">
-        <v>-0.07255648638328073</v>
+        <v>-0.04136043718544573</v>
       </c>
       <c r="D93">
-        <v>-0.2455250301259183</v>
+        <v>-0.3333185163043728</v>
       </c>
       <c r="E93">
-        <v>0.3818955800680734</v>
+        <v>0.05983412718808143</v>
       </c>
       <c r="F93">
-        <v>0.06400026971793694</v>
+        <v>0.09111075473714553</v>
       </c>
       <c r="G93">
-        <v>0.09376651101829678</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03257173048621518</v>
+      </c>
+      <c r="H93">
+        <v>0.01753008228633222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3041403895437182</v>
+        <v>0.2638916496984356</v>
       </c>
       <c r="C94">
-        <v>0.2099086539437969</v>
+        <v>-0.09745095520417979</v>
       </c>
       <c r="D94">
-        <v>-0.08283464036962143</v>
+        <v>0.1392018568243388</v>
       </c>
       <c r="E94">
-        <v>-0.0431049485952864</v>
+        <v>0.005275813206896241</v>
       </c>
       <c r="F94">
-        <v>-0.2185017342692245</v>
+        <v>-0.188068361190253</v>
       </c>
       <c r="G94">
-        <v>0.0784324887470315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.14400094043818</v>
+      </c>
+      <c r="H94">
+        <v>0.1870175454371158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07269346313608727</v>
+        <v>0.05533283057745465</v>
       </c>
       <c r="C95">
-        <v>0.02500870003960766</v>
+        <v>-0.02985750637324397</v>
       </c>
       <c r="D95">
-        <v>0.09785864553982819</v>
+        <v>0.08836214250145105</v>
       </c>
       <c r="E95">
-        <v>-0.06748501486341242</v>
+        <v>0.08009372485671323</v>
       </c>
       <c r="F95">
-        <v>-0.007234953967243876</v>
+        <v>-0.00795605890945982</v>
       </c>
       <c r="G95">
-        <v>-0.1368361709434484</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02972174178401023</v>
+      </c>
+      <c r="H95">
+        <v>-0.0411382206520657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1815388069419233</v>
+        <v>0.1819906031025629</v>
       </c>
       <c r="C98">
-        <v>-0.003487439490173716</v>
+        <v>-0.06938096938510886</v>
       </c>
       <c r="D98">
-        <v>0.02582673561974158</v>
+        <v>0.02939854460383307</v>
       </c>
       <c r="E98">
-        <v>0.07648047516671599</v>
+        <v>0.04474390286287114</v>
       </c>
       <c r="F98">
-        <v>0.1547447430404897</v>
+        <v>-0.002638418016993399</v>
       </c>
       <c r="G98">
-        <v>0.3105155988283402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07758260839937602</v>
+      </c>
+      <c r="H98">
+        <v>-0.3771973933933677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007056277489484368</v>
+        <v>0.01467568006404218</v>
       </c>
       <c r="C101">
-        <v>0.02415783425001955</v>
+        <v>0.0006041933121989976</v>
       </c>
       <c r="D101">
-        <v>0.02292669989365055</v>
+        <v>0.01040068328397508</v>
       </c>
       <c r="E101">
-        <v>-0.1132894954203866</v>
+        <v>-0.005608806874753617</v>
       </c>
       <c r="F101">
-        <v>0.1403250302111464</v>
+        <v>-0.01768926829870974</v>
       </c>
       <c r="G101">
-        <v>-0.1801906182710131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.107908956653974</v>
+      </c>
+      <c r="H101">
+        <v>0.03106460379733311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1078336863464682</v>
+        <v>0.1063828740619956</v>
       </c>
       <c r="C102">
-        <v>0.06683873790437789</v>
+        <v>-0.03526314484252732</v>
       </c>
       <c r="D102">
-        <v>0.001630109748557066</v>
+        <v>0.07383646548431004</v>
       </c>
       <c r="E102">
-        <v>-0.04411907699925979</v>
+        <v>-0.005978693251387786</v>
       </c>
       <c r="F102">
-        <v>-0.1210550785653139</v>
+        <v>-0.06875209716039418</v>
       </c>
       <c r="G102">
-        <v>0.0008062628728674416</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07810727871770713</v>
+      </c>
+      <c r="H102">
+        <v>0.07100962861051237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02828094148165717</v>
+        <v>0.0198202829499193</v>
       </c>
       <c r="C103">
-        <v>0.01448988418156826</v>
+        <v>-0.007619165177982584</v>
       </c>
       <c r="D103">
-        <v>-0.002092522051890154</v>
+        <v>0.01651466466220693</v>
       </c>
       <c r="E103">
-        <v>-0.01600125930235086</v>
+        <v>-0.01145738944931084</v>
       </c>
       <c r="F103">
-        <v>-0.009370714953060943</v>
+        <v>-0.01356808644001035</v>
       </c>
       <c r="G103">
-        <v>-0.03402418655601643</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>2.410659884503441e-05</v>
+      </c>
+      <c r="H103">
+        <v>0.00849710449444524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2705702090509859</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9456424254414848</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0135793880062527</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03627925530269173</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1444070841358726</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01225687039800232</v>
+      </c>
+      <c r="H104">
+        <v>0.03861829912150361</v>
       </c>
     </row>
   </sheetData>
